--- a/datasets/usuarios/02945327902/02945327902_dados_individuais.xlsx
+++ b/datasets/usuarios/02945327902/02945327902_dados_individuais.xlsx
@@ -1,42 +1,85 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulofernandomarquesdiasgomescarneiro/Documents/GitHub/st_controle_saude/datasets/usuarios/02945327902/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A64A4B2-619A-7945-9809-CFC2CEA9F137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>Data e Hora do Lançamento</t>
+  </si>
+  <si>
+    <t>Data do Registro</t>
+  </si>
+  <si>
+    <t>Peso</t>
+  </si>
+  <si>
+    <t>IMC</t>
+  </si>
+  <si>
+    <t>Metabolismo Basal</t>
+  </si>
+  <si>
+    <t>Idade Corporal</t>
+  </si>
+  <si>
+    <t>Gordura Visceral</t>
+  </si>
+  <si>
+    <t>Musculatura Corporal</t>
+  </si>
+  <si>
+    <t>Gordura Corporal</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -51,95 +94,48 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -427,411 +423,418 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Data e Hora do Lançamento</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Data do Registro</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Peso</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>IMC</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Percentual de Gordura Corporal</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Percentual de Musculatura Corporal</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Metabolismo Basal</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Idade Corporal</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Gordura Visceral</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>45749.48928975694</v>
-      </c>
-      <c r="B2" s="2" t="n">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>45749.489289756937</v>
+      </c>
+      <c r="B2" s="2">
         <v>45679</v>
       </c>
-      <c r="C2" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="C2">
+        <v>99.9</v>
+      </c>
+      <c r="D2">
         <v>34.6</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>36</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>29.7</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>1997</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>68</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>18</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>45749.51376042824</v>
-      </c>
-      <c r="B3" s="2" t="n">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>45749.513760428243</v>
+      </c>
+      <c r="B3" s="2">
         <v>45686</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>96.7</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>33.5</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>36.5</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>29.3</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>1950</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>66</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>18</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>45749.51432100694</v>
-      </c>
-      <c r="B4" s="2" t="n">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>45749.514321006936</v>
+      </c>
+      <c r="B4" s="2">
         <v>45693</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>95.7</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>33.1</v>
       </c>
-      <c r="E4" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="E4">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="F4">
         <v>29.4</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>1937</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>66</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>17</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>45749.514879375</v>
-      </c>
-      <c r="B5" s="2" t="n">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>45749.514879374998</v>
+      </c>
+      <c r="B5" s="2">
         <v>45700</v>
       </c>
-      <c r="C5" t="n">
-        <v>94.90000000000001</v>
-      </c>
-      <c r="D5" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="E5" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="C5">
+        <v>94.9</v>
+      </c>
+      <c r="D5">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="E5">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="F5">
         <v>30</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>1929</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>65</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>17</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>45749.51566283565</v>
-      </c>
-      <c r="B6" s="2" t="n">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>45749.515662835649</v>
+      </c>
+      <c r="B6" s="2">
         <v>45707</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>94</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>32.5</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>35.5</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>29.8</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>1915</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>64</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>17</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>45749.51934015047</v>
-      </c>
-      <c r="B7" s="2" t="n">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>45749.519340150473</v>
+      </c>
+      <c r="B7" s="2">
         <v>45714</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>92.7</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>32.1</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>35.1</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>30</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>1897</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>63</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>16</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
         <v>45749.52108471065</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="2">
         <v>45720</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>92.2</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>31.9</v>
       </c>
-      <c r="E8" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="E8">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="F8">
         <v>31.2</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>1897</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>62</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>16</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
         <v>45749.52108471065</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="2">
         <v>45728</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>91.3</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>31.6</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>35</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>30.1</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>1877</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>62</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>16</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>45749.52253418981</v>
-      </c>
-      <c r="B10" s="2" t="n">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>45749.522534189811</v>
+      </c>
+      <c r="B10" s="2">
         <v>45735</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>91</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>31.5</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>34.1</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>30.6</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>1877</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>62</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>16</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>45749.52319679398</v>
-      </c>
-      <c r="B11" s="2" t="n">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>45749.523196793984</v>
+      </c>
+      <c r="B11" s="2">
         <v>45742</v>
       </c>
-      <c r="C11" t="n">
-        <v>90.59999999999999</v>
-      </c>
-      <c r="D11" t="n">
+      <c r="C11">
+        <v>90.6</v>
+      </c>
+      <c r="D11">
         <v>31.3</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>33</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>31.3</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>1875</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>61</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>15</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>45749.52616435185</v>
-      </c>
-      <c r="B12" s="2" t="n">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>45749.526164351853</v>
+      </c>
+      <c r="B12" s="2">
         <v>45749</v>
       </c>
-      <c r="C12" t="n">
-        <v>89.09999999999999</v>
-      </c>
-      <c r="D12" t="n">
+      <c r="C12">
+        <v>89.1</v>
+      </c>
+      <c r="D12">
         <v>30.8</v>
       </c>
-      <c r="E12" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="E12">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="F12">
         <v>31.7</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>1856</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>59</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12">
         <v>15</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>45762.35861460576</v>
-      </c>
-      <c r="B13" s="3" t="n">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>45762.358614606477</v>
+      </c>
+      <c r="B13" s="2">
         <v>45756</v>
       </c>
-      <c r="C13" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="D13" t="n">
+      <c r="C13">
+        <v>87.4</v>
+      </c>
+      <c r="D13">
         <v>30.2</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>31.5</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>32.1</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>1833</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
         <v>58</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>45767.986036866932</v>
+      </c>
+      <c r="B14" s="3">
+        <v>45763</v>
+      </c>
+      <c r="C14">
+        <v>86.3</v>
+      </c>
+      <c r="D14">
+        <v>29.9</v>
+      </c>
+      <c r="E14">
+        <v>31.1</v>
+      </c>
+      <c r="F14">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="G14">
+        <v>1819</v>
+      </c>
+      <c r="H14">
+        <v>57</v>
+      </c>
+      <c r="I14">
         <v>14</v>
       </c>
     </row>

--- a/datasets/usuarios/02945327902/02945327902_dados_individuais.xlsx
+++ b/datasets/usuarios/02945327902/02945327902_dados_individuais.xlsx
@@ -1,85 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulofernandomarquesdiasgomescarneiro/Documents/GitHub/st_controle_saude/datasets/usuarios/02945327902/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A64A4B2-619A-7945-9809-CFC2CEA9F137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Data e Hora do Lançamento</t>
-  </si>
-  <si>
-    <t>Data do Registro</t>
-  </si>
-  <si>
-    <t>Peso</t>
-  </si>
-  <si>
-    <t>IMC</t>
-  </si>
-  <si>
-    <t>Metabolismo Basal</t>
-  </si>
-  <si>
-    <t>Idade Corporal</t>
-  </si>
-  <si>
-    <t>Gordura Visceral</t>
-  </si>
-  <si>
-    <t>Musculatura Corporal</t>
-  </si>
-  <si>
-    <t>Gordura Corporal</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -94,48 +51,95 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -423,418 +427,469 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>45749.489289756937</v>
-      </c>
-      <c r="B2" s="2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Data e Hora do Lançamento</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Data do Registro</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Peso</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>IMC</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Gordura Corporal</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Musculatura Corporal</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Metabolismo Basal</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Idade Corporal</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Gordura Visceral</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45749.48928975694</v>
+      </c>
+      <c r="B2" s="2" t="n">
         <v>45679</v>
       </c>
-      <c r="C2">
-        <v>99.9</v>
-      </c>
-      <c r="D2">
+      <c r="C2" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="D2" t="n">
         <v>34.6</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>36</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>29.7</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>1997</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>68</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="n">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>45749.513760428243</v>
-      </c>
-      <c r="B3" s="2">
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45749.51376042824</v>
+      </c>
+      <c r="B3" s="2" t="n">
         <v>45686</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>96.7</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>33.5</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>36.5</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>29.3</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>1950</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>66</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="n">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>45749.514321006936</v>
-      </c>
-      <c r="B4" s="2">
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45749.51432100694</v>
+      </c>
+      <c r="B4" s="2" t="n">
         <v>45693</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>95.7</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>33.1</v>
       </c>
-      <c r="E4">
-        <v>36.299999999999997</v>
-      </c>
-      <c r="F4">
+      <c r="E4" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="F4" t="n">
         <v>29.4</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>1937</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>66</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>45749.514879374998</v>
-      </c>
-      <c r="B5" s="2">
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45749.514879375</v>
+      </c>
+      <c r="B5" s="2" t="n">
         <v>45700</v>
       </c>
-      <c r="C5">
-        <v>94.9</v>
-      </c>
-      <c r="D5">
-        <v>32.799999999999997</v>
-      </c>
-      <c r="E5">
-        <v>35.299999999999997</v>
-      </c>
-      <c r="F5">
+      <c r="C5" t="n">
+        <v>94.90000000000001</v>
+      </c>
+      <c r="D5" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="E5" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="F5" t="n">
         <v>30</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>1929</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>65</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>45749.515662835649</v>
-      </c>
-      <c r="B6" s="2">
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45749.51566283565</v>
+      </c>
+      <c r="B6" s="2" t="n">
         <v>45707</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>94</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>32.5</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>35.5</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>29.8</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>1915</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>64</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>45749.519340150473</v>
-      </c>
-      <c r="B7" s="2">
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45749.51934015047</v>
+      </c>
+      <c r="B7" s="2" t="n">
         <v>45714</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>92.7</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>32.1</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>35.1</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>30</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>1897</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="n">
         <v>63</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>45749.52108471065</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="2" t="n">
         <v>45720</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>92.2</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>31.9</v>
       </c>
-      <c r="E8">
-        <v>33.200000000000003</v>
-      </c>
-      <c r="F8">
+      <c r="E8" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="F8" t="n">
         <v>31.2</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="n">
         <v>1897</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="n">
         <v>62</v>
       </c>
-      <c r="I8">
+      <c r="I8" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>45749.52108471065</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="2" t="n">
         <v>45728</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>91.3</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>31.6</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>35</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>30.1</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="n">
         <v>1877</v>
       </c>
-      <c r="H9">
+      <c r="H9" t="n">
         <v>62</v>
       </c>
-      <c r="I9">
+      <c r="I9" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>45749.522534189811</v>
-      </c>
-      <c r="B10" s="2">
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45749.52253418981</v>
+      </c>
+      <c r="B10" s="2" t="n">
         <v>45735</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>91</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>31.5</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>34.1</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>30.6</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="n">
         <v>1877</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="n">
         <v>62</v>
       </c>
-      <c r="I10">
+      <c r="I10" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>45749.523196793984</v>
-      </c>
-      <c r="B11" s="2">
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45749.52319679398</v>
+      </c>
+      <c r="B11" s="2" t="n">
         <v>45742</v>
       </c>
-      <c r="C11">
-        <v>90.6</v>
-      </c>
-      <c r="D11">
+      <c r="C11" t="n">
+        <v>90.59999999999999</v>
+      </c>
+      <c r="D11" t="n">
         <v>31.3</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>33</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <v>31.3</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="n">
         <v>1875</v>
       </c>
-      <c r="H11">
+      <c r="H11" t="n">
         <v>61</v>
       </c>
-      <c r="I11">
+      <c r="I11" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>45749.526164351853</v>
-      </c>
-      <c r="B12" s="2">
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45749.52616435185</v>
+      </c>
+      <c r="B12" s="2" t="n">
         <v>45749</v>
       </c>
-      <c r="C12">
-        <v>89.1</v>
-      </c>
-      <c r="D12">
+      <c r="C12" t="n">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="D12" t="n">
         <v>30.8</v>
       </c>
-      <c r="E12">
-        <v>32.299999999999997</v>
-      </c>
-      <c r="F12">
+      <c r="E12" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="F12" t="n">
         <v>31.7</v>
       </c>
-      <c r="G12">
+      <c r="G12" t="n">
         <v>1856</v>
       </c>
-      <c r="H12">
+      <c r="H12" t="n">
         <v>59</v>
       </c>
-      <c r="I12">
+      <c r="I12" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>45762.358614606477</v>
-      </c>
-      <c r="B13" s="2">
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45762.35861460648</v>
+      </c>
+      <c r="B13" s="2" t="n">
         <v>45756</v>
       </c>
-      <c r="C13">
-        <v>87.4</v>
-      </c>
-      <c r="D13">
+      <c r="C13" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="D13" t="n">
         <v>30.2</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>31.5</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="n">
         <v>32.1</v>
       </c>
-      <c r="G13">
+      <c r="G13" t="n">
         <v>1833</v>
       </c>
-      <c r="H13">
+      <c r="H13" t="n">
         <v>58</v>
       </c>
-      <c r="I13">
+      <c r="I13" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>45767.986036866932</v>
-      </c>
-      <c r="B14" s="3">
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45767.98603686343</v>
+      </c>
+      <c r="B14" s="2" t="n">
         <v>45763</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>86.3</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="n">
         <v>29.9</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>31.1</v>
       </c>
-      <c r="F14">
-        <v>32.299999999999997</v>
-      </c>
-      <c r="G14">
+      <c r="F14" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="G14" t="n">
         <v>1819</v>
       </c>
-      <c r="H14">
+      <c r="H14" t="n">
         <v>57</v>
       </c>
-      <c r="I14">
+      <c r="I14" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45770.47045805353</v>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>45770</v>
+      </c>
+      <c r="C15" t="n">
+        <v>85.5</v>
+      </c>
+      <c r="D15" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="E15" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1810</v>
+      </c>
+      <c r="H15" t="n">
+        <v>56</v>
+      </c>
+      <c r="I15" t="n">
         <v>14</v>
       </c>
     </row>

--- a/datasets/usuarios/02945327902/02945327902_dados_individuais.xlsx
+++ b/datasets/usuarios/02945327902/02945327902_dados_individuais.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,11 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -60,13 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -432,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,6 +483,16 @@
           <t>Gordura Visceral</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Percentual de Gordura Corporal</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Percentual de Musculatura Corporal</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -515,6 +522,8 @@
       <c r="I2" t="n">
         <v>18</v>
       </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -544,6 +553,8 @@
       <c r="I3" t="n">
         <v>18</v>
       </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -573,6 +584,8 @@
       <c r="I4" t="n">
         <v>17</v>
       </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -602,6 +615,8 @@
       <c r="I5" t="n">
         <v>17</v>
       </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -631,6 +646,8 @@
       <c r="I6" t="n">
         <v>17</v>
       </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -660,6 +677,8 @@
       <c r="I7" t="n">
         <v>16</v>
       </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -689,6 +708,8 @@
       <c r="I8" t="n">
         <v>16</v>
       </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -718,6 +739,8 @@
       <c r="I9" t="n">
         <v>16</v>
       </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -747,6 +770,8 @@
       <c r="I10" t="n">
         <v>16</v>
       </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -776,6 +801,8 @@
       <c r="I11" t="n">
         <v>15</v>
       </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -805,6 +832,8 @@
       <c r="I12" t="n">
         <v>15</v>
       </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -834,6 +863,8 @@
       <c r="I13" t="n">
         <v>14</v>
       </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -863,12 +894,14 @@
       <c r="I14" t="n">
         <v>14</v>
       </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45770.47045805353</v>
-      </c>
-      <c r="B15" s="3" t="n">
+        <v>45770.47045805556</v>
+      </c>
+      <c r="B15" s="2" t="n">
         <v>45770</v>
       </c>
       <c r="C15" t="n">
@@ -892,6 +925,8 @@
       <c r="I15" t="n">
         <v>14</v>
       </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
